--- a/app/屏幕宽高分辨率计算器.xlsx
+++ b/app/屏幕宽高分辨率计算器.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/519e2a39b83ef386/李根/Soft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/519e2a39b83ef386/李根/Web/github/johnnyokok.github.io/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A6B22860-4D6B-4409-84E1-73E38CD6E61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59593791-0D2F-4C8E-84D5-6E1779E0BF09}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{A6B22860-4D6B-4409-84E1-73E38CD6E61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4052274-6C9E-466B-8613-DF5E912CE00A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,11 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>高</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,7 +183,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>k</t>
+    <t>屏幕比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,66 +430,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -504,24 +492,28 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -804,137 +796,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="11"/>
-    <col min="5" max="5" width="14.33203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="11"/>
+    <col min="1" max="1" width="6" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="9"/>
+    <col min="5" max="5" width="14.33203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="11">
+        <f>B3*9/16</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="13">
+        <f>F3*16/9</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="23"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12">
+        <f>B4*10/16</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="14">
+        <f>F4*16/10</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="10"/>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="12">
+        <f>B5*3/4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="14">
+        <f>F5*4/3</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10">
-        <v>102</v>
-      </c>
-      <c r="C3" s="13">
-        <f>B3*9/16</f>
-        <v>57.375</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="15">
-        <f>F3*16/9</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="10"/>
+    <row r="6" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12">
+        <f>B6*9/21</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="14">
+        <f>F6*21/9</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="14">
-        <f>B4*10/16</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="16">
-        <f>F4*16/10</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="14">
-        <f>B5*3/4</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="16">
-        <f>F5*4/3</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="I5" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="14">
-        <f>B6*9/21</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="16">
-        <f>F6*21/9</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="14">
+      <c r="B7" s="10"/>
+      <c r="C7" s="12">
         <f>B7*4/5</f>
         <v>0</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="16">
+      <c r="D7" s="10"/>
+      <c r="E7" s="14">
         <f>F7*5/4</f>
         <v>0</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/app/屏幕宽高分辨率计算器.xlsx
+++ b/app/屏幕宽高分辨率计算器.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/519e2a39b83ef386/李根/Web/github/johnnyokok.github.io/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{A6B22860-4D6B-4409-84E1-73E38CD6E61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4052274-6C9E-466B-8613-DF5E912CE00A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8768E24-982B-4715-9355-5310FB47EE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,24 +496,24 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -802,7 +802,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -818,18 +818,18 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -927,6 +927,7 @@
       <c r="F7" s="10"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="HsRlDobvI1Ic4lF8C4nF82CJJPtAc0WpfZhzbc6r+rZ/sHzdQvwky4WZ12ThA5W631pgcBXoqWmpUehfT8JwvQ==" saltValue="Mgmu2tMsAzJjCoczdPW+GA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>

--- a/app/屏幕宽高分辨率计算器.xlsx
+++ b/app/屏幕宽高分辨率计算器.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8768E24-982B-4715-9355-5310FB47EE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B8768E24-982B-4715-9355-5310FB47EE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D583BB24-2DD0-A046-B43C-F9CD67B353A1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -800,23 +801,23 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.05078125" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="9"/>
-    <col min="5" max="5" width="14.33203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="9"/>
+    <col min="3" max="3" width="11.296875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="9"/>
+    <col min="5" max="5" width="14.390625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.71875" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="19" t="s">
         <v>3</v>
@@ -828,7 +829,7 @@
       </c>
       <c r="F1" s="22"/>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>11</v>
       </c>
@@ -846,14 +847,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8">
+        <v>720</v>
+      </c>
       <c r="C3" s="11">
         <f>B3*9/16</f>
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="13">
@@ -862,7 +865,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,7 +881,7 @@
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,7 +897,7 @@
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,7 +913,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
